--- a/Admin/2015清华XLP全体名单(最新）.xlsx
+++ b/Admin/2015清华XLP全体名单(最新）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19830" windowHeight="8370"/>
+    <workbookView windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="全体挑战方名单" sheetId="1" r:id="rId1"/>
@@ -906,12 +906,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -961,10 +961,6 @@
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1042,29 +1038,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
@@ -1087,9 +1083,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1097,9 +1090,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,11 +1415,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -1456,7 +1446,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D27" sqref="D8:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1525,7 +1515,7 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1534,7 +1524,7 @@
       <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>18510970195</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1548,7 +1538,7 @@
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1557,7 +1547,7 @@
       <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>13401072632</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -1571,7 +1561,7 @@
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1580,7 +1570,7 @@
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>13810356841</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -1594,7 +1584,7 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1603,7 +1593,7 @@
       <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>15600279521</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1617,7 +1607,7 @@
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1626,7 +1616,7 @@
       <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>15845672713</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -1640,7 +1630,7 @@
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1649,10 +1639,10 @@
       <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>13439453428</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -1663,7 +1653,7 @@
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1672,10 +1662,10 @@
       <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>15038273310</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -1686,7 +1676,7 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1695,10 +1685,10 @@
       <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>18511356622</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -1709,7 +1699,7 @@
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1718,10 +1708,10 @@
       <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>13588550938</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -1732,7 +1722,7 @@
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1741,10 +1731,10 @@
       <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>15811006896</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -1755,7 +1745,7 @@
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1764,10 +1754,10 @@
       <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>15652918786</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="11" t="s">
         <v>53</v>
       </c>
@@ -1776,7 +1766,7 @@
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -1785,7 +1775,7 @@
       <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>13146297871</v>
       </c>
       <c r="E15" s="10"/>
@@ -1797,8 +1787,8 @@
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:7">
-      <c r="A16" s="13">
-        <v>1</v>
+      <c r="A16" s="7">
+        <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>58</v>
@@ -1806,10 +1796,10 @@
       <c r="C16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>18936651689</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -1820,8 +1810,8 @@
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="13">
-        <v>14</v>
+      <c r="A17" s="7">
+        <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>62</v>
@@ -1829,7 +1819,7 @@
       <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>18246683616</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -1843,31 +1833,31 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>15663339151</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="13">
-        <v>16</v>
+      <c r="A19" s="7">
+        <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>68</v>
@@ -1875,7 +1865,7 @@
       <c r="C19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>15600696499</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -1889,8 +1879,8 @@
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="13">
-        <v>17</v>
+      <c r="A20" s="7">
+        <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>72</v>
@@ -1898,7 +1888,7 @@
       <c r="C20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>18811783979</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1912,8 +1902,8 @@
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="13">
-        <v>18</v>
+      <c r="A21" s="7">
+        <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>75</v>
@@ -1921,7 +1911,7 @@
       <c r="C21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>13581655998</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -1935,8 +1925,8 @@
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="13">
-        <v>19</v>
+      <c r="A22" s="7">
+        <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>79</v>
@@ -1944,7 +1934,7 @@
       <c r="C22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>13391516238</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -1958,8 +1948,8 @@
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="13">
-        <v>20</v>
+      <c r="A23" s="7">
+        <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>83</v>
@@ -1967,7 +1957,7 @@
       <c r="C23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>18813194990</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -1981,31 +1971,31 @@
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="18">
-        <v>21</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="21">
         <v>18813198340</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="13">
-        <v>22</v>
+      <c r="A25" s="7">
+        <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>87</v>
@@ -2013,7 +2003,7 @@
       <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>18740401880</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2027,8 +2017,8 @@
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="13">
-        <v>23</v>
+      <c r="A26" s="7">
+        <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>89</v>
@@ -2036,7 +2026,7 @@
       <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>18729342778</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -2050,8 +2040,8 @@
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="13">
-        <v>24</v>
+      <c r="A27" s="7">
+        <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>91</v>
@@ -2059,7 +2049,7 @@
       <c r="C27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>15667075282</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -2073,8 +2063,8 @@
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="13">
-        <v>25</v>
+      <c r="A28" s="7">
+        <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>93</v>
@@ -2082,7 +2072,7 @@
       <c r="C28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>18829078653</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -2096,8 +2086,8 @@
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="13">
-        <v>26</v>
+      <c r="A29" s="7">
+        <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>96</v>
@@ -2105,7 +2095,7 @@
       <c r="C29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>13571811104</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -2119,8 +2109,8 @@
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="13">
-        <v>27</v>
+      <c r="A30" s="7">
+        <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>98</v>
@@ -2128,7 +2118,7 @@
       <c r="C30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>18792881731</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -2142,8 +2132,8 @@
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="13">
-        <v>28</v>
+      <c r="A31" s="7">
+        <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>100</v>
@@ -2151,7 +2141,7 @@
       <c r="C31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>15529587907</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -2165,36 +2155,36 @@
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="18">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="21">
+        <v>18292896467</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="23">
-        <v>18292896467</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="33" ht="16.5" spans="2:6">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="22" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="11"/>
     </row>
     <row r="35" ht="16.5" spans="5:6">
-      <c r="E35" s="14"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="11"/>
     </row>
   </sheetData>
@@ -2202,34 +2192,34 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" display="540157900@qq.com"/>
-    <hyperlink ref="E32" r:id="rId2" display="568987165@qq.com"/>
-    <hyperlink ref="E30" r:id="rId3" display="710042931@qq.com"/>
-    <hyperlink ref="E31" r:id="rId4" display="779596555@qq.com"/>
-    <hyperlink ref="E27" r:id="rId5" display="494313716@qq.com"/>
-    <hyperlink ref="E25" r:id="rId6" display="419909058@qq.com"/>
-    <hyperlink ref="E23" r:id="rId7" display="morawallance@126.com"/>
-    <hyperlink ref="E24" r:id="rId8" display="lxx199013@163.com"/>
-    <hyperlink ref="E22" r:id="rId9" display="lvbaishu@163.com"/>
-    <hyperlink ref="E21" r:id="rId10" display="694975362@qq.com"/>
-    <hyperlink ref="E20" r:id="rId11" display="tanmeili9011@gmail.com"/>
-    <hyperlink ref="E19" r:id="rId12" display="yanyiqin2013@qq.com"/>
-    <hyperlink ref="E18" r:id="rId13" display="blackguanxin@163.com"/>
-    <hyperlink ref="E17" r:id="rId14" display="1012977267@qq.com"/>
-    <hyperlink ref="E29" r:id="rId15" display="oy_wangyiwei@qq.com"/>
-    <hyperlink ref="E28" r:id="rId16" display="834384673@qq.com"/>
-    <hyperlink ref="E26" r:id="rId17" display="2454946725@qq.com"/>
-    <hyperlink ref="E8" r:id="rId18" display="jiangfeng6533@163.com"/>
-    <hyperlink ref="E13" r:id="rId19" display="540200196@qq.com"/>
-    <hyperlink ref="E12" r:id="rId20" display="xxh792823179@gmail.com"/>
-    <hyperlink ref="E11" r:id="rId21" display="515155785@qq.com"/>
-    <hyperlink ref="E6" r:id="rId22" display="woodyme2008@hotmail.com"/>
-    <hyperlink ref="E4" r:id="rId23" display="echowdh@163.com"/>
-    <hyperlink ref="E7" r:id="rId24" display="lixinnian1991@163.com"/>
-    <hyperlink ref="E9" r:id="rId25" display="alimbekovk10@mails.tsinghua.edu.cn"/>
-    <hyperlink ref="E10" r:id="rId26" display="chinaxueyuan@gmail.com"/>
-    <hyperlink ref="E5" r:id="rId27" display="evelyn1128@live.cn"/>
-    <hyperlink ref="E3" r:id="rId28" display="koo0905@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="koo0905@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId2" display="evelyn1128@live.cn"/>
+    <hyperlink ref="E10" r:id="rId3" display="chinaxueyuan@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId4" display="alimbekovk10@mails.tsinghua.edu.cn"/>
+    <hyperlink ref="E7" r:id="rId5" display="lixinnian1991@163.com"/>
+    <hyperlink ref="E4" r:id="rId6" display="echowdh@163.com"/>
+    <hyperlink ref="E6" r:id="rId7" display="woodyme2008@hotmail.com"/>
+    <hyperlink ref="E11" r:id="rId8" display="515155785@qq.com"/>
+    <hyperlink ref="E12" r:id="rId9" display="xxh792823179@gmail.com"/>
+    <hyperlink ref="E13" r:id="rId10" display="540200196@qq.com"/>
+    <hyperlink ref="E8" r:id="rId11" display="jiangfeng6533@163.com"/>
+    <hyperlink ref="E26" r:id="rId12" display="2454946725@qq.com"/>
+    <hyperlink ref="E28" r:id="rId13" display="834384673@qq.com"/>
+    <hyperlink ref="E29" r:id="rId14" display="oy_wangyiwei@qq.com"/>
+    <hyperlink ref="E17" r:id="rId15" display="1012977267@qq.com"/>
+    <hyperlink ref="E18" r:id="rId16" display="blackguanxin@163.com"/>
+    <hyperlink ref="E19" r:id="rId17" display="yanyiqin2013@qq.com"/>
+    <hyperlink ref="E20" r:id="rId18" display="tanmeili9011@gmail.com"/>
+    <hyperlink ref="E21" r:id="rId19" display="694975362@qq.com"/>
+    <hyperlink ref="E22" r:id="rId20" display="lvbaishu@163.com"/>
+    <hyperlink ref="E24" r:id="rId21" display="lxx199013@163.com"/>
+    <hyperlink ref="E23" r:id="rId22" display="morawallance@126.com"/>
+    <hyperlink ref="E25" r:id="rId23" display="419909058@qq.com"/>
+    <hyperlink ref="E27" r:id="rId24" display="494313716@qq.com"/>
+    <hyperlink ref="E31" r:id="rId25" display="779596555@qq.com"/>
+    <hyperlink ref="E30" r:id="rId26" display="710042931@qq.com"/>
+    <hyperlink ref="E32" r:id="rId27" display="568987165@qq.com"/>
+    <hyperlink ref="E16" r:id="rId28" display="540157900@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -3501,8 +3491,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="zh@gitcafe.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="gotgit@qq.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="gotgit@qq.com"/>
+    <hyperlink ref="C8" r:id="rId2" display="zh@gitcafe.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
